--- a/biology/Botanique/Physaria/Physaria.xlsx
+++ b/biology/Botanique/Physaria/Physaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Physaria est un genre végétal de la famille des Brassicaceae. Après un changement de nomenclature en 2002, de nombreuses espèces auparavant placées dans le genre Lesquerella ont été déplacées dans le genre Physaria. 
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (23 déc. 2010)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (23 déc. 2010) :
 Physaria acutifolia
 Physaria arctica
 Physaria brassicoides
@@ -552,7 +568,7 @@
 Physaria pruinosa
 Physaria purpurea
 Physaria rosei
-Selon ITIS      (23 déc. 2010)[2] :
+Selon ITIS      (23 déc. 2010) :
 Physaria acutifolia Rydb.
 Physaria alpestris Suksdorf
 Physaria alpina Rollins
